--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B8130-CFC4-4453-90AE-EDAF9CF8F029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33481631-CB06-47BE-8543-D9BA8483A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
   <si>
     <t>Semaine</t>
   </si>
@@ -91,9 +91,6 @@
     <t>JDT/planification</t>
   </si>
   <si>
-    <t>commencer de travail(creation des fichier:(JdT)</t>
-  </si>
-  <si>
     <t>Lieu :</t>
   </si>
   <si>
@@ -278,13 +275,31 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=heoTab1e41A          /////             https://www.youtube.com/watch?v=ZqDtPFrUonQ</t>
+  </si>
+  <si>
+    <t>commencer de travail(creation des fichier:(journal de travail )</t>
+  </si>
+  <si>
+    <t>Développement du journal de travail</t>
+  </si>
+  <si>
+    <t>Développement du rapport et des point(planification, Introduction,Maquettes)</t>
+  </si>
+  <si>
+    <t>videoa sur Modélisation</t>
+  </si>
+  <si>
+    <t>regarder des videos sur Figma pour augmenter la compétence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1pW_sk-2y40    etc..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +383,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -871,10 +894,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1005,46 +1029,50 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1359,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,8 +1405,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58"/>
-      <c r="B1" s="59"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1392,40 +1420,40 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="64"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1433,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -1452,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -1460,13 +1488,13 @@
         <v>10</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1475,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1483,78 +1511,78 @@
         <v>13</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="I7" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="I8" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="23">
         <v>45532</v>
@@ -1569,7 +1597,7 @@
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="25">
         <v>45596</v>
@@ -1584,7 +1612,7 @@
     <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="26">
         <v>8</v>
@@ -1599,7 +1627,7 @@
     <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17">
         <v>10</v>
@@ -1614,7 +1642,7 @@
     <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="17">
         <v>3</v>
@@ -1630,7 +1658,7 @@
       <c r="A15" s="10"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
@@ -1640,8 +1668,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1651,8 +1679,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1662,8 +1690,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1673,31 +1701,31 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="61"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="32">
         <v>0</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="73"/>
+      <c r="B20" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="71"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1705,14 +1733,14 @@
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>30</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>0</v>
@@ -1724,44 +1752,44 @@
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65">
         <v>1</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="72" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="63" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="64"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -1769,13 +1797,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1784,44 +1818,66 @@
         <v>3</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="37">
         <v>4</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="F26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="37">
         <v>5</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="F27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="82" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
@@ -1829,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="3"/>
@@ -1844,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="3"/>
@@ -1859,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="3"/>
@@ -1874,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="3"/>
@@ -1889,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="3"/>
@@ -1904,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="3"/>
@@ -1919,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="3"/>
@@ -1934,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="3"/>
@@ -1949,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="3"/>
@@ -1964,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="3"/>
@@ -1979,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="3"/>
@@ -1994,18 +2050,18 @@
         <v>17</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="3"/>
       <c r="F39" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="32">
         <v>0</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39" s="34"/>
     </row>
@@ -2015,11 +2071,11 @@
         <v>18</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2030,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="3"/>
@@ -2044,46 +2100,46 @@
         <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76">
+      <c r="A42" s="64"/>
+      <c r="B42" s="65">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="63" t="s">
+      <c r="I42" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="80"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2091,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="47"/>
       <c r="E44" s="3"/>
@@ -2106,7 +2162,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="3"/>
@@ -2155,7 +2211,7 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="61"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
@@ -2166,7 +2222,7 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="61"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2177,7 +2233,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="61"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2188,7 +2244,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="61"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2199,7 +2255,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="61"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2210,7 +2266,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="61"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2221,7 +2277,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="61"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2232,7 +2288,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="61"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2243,8 +2299,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="81"/>
-      <c r="B57" s="62"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -2263,19 +2319,19 @@
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59" s="3"/>
       <c r="F59" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="32">
         <v>0</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2292,32 +2348,32 @@
         <v>1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="68"/>
-      <c r="F62" s="63" t="s">
+      <c r="E62" s="56"/>
+      <c r="F62" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="63" t="s">
+      <c r="H62" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="63" t="s">
+      <c r="I62" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="68"/>
-      <c r="F63" s="64"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2427,19 +2483,19 @@
     <row r="79" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="3"/>
       <c r="F79" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G79" s="32">
         <v>0</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2456,32 +2512,32 @@
         <v>1</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="68"/>
-      <c r="F82" s="63" t="s">
+      <c r="E82" s="56"/>
+      <c r="F82" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="63" t="s">
+      <c r="I82" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="68"/>
-      <c r="F83" s="64"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2591,19 +2647,19 @@
     <row r="99" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E99" s="3"/>
       <c r="F99" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G99" s="32">
         <v>0</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2620,32 +2676,32 @@
         <v>1</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="68"/>
-      <c r="F102" s="63" t="s">
+      <c r="E102" s="56"/>
+      <c r="F102" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="63" t="s">
+      <c r="H102" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="63" t="s">
+      <c r="I102" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="68"/>
-      <c r="F103" s="64"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -2755,19 +2811,19 @@
     <row r="119" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E119" s="3"/>
       <c r="F119" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G119" s="32">
         <v>0</v>
       </c>
       <c r="H119" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -2784,32 +2840,32 @@
         <v>1</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="68"/>
-      <c r="F122" s="63" t="s">
+      <c r="E122" s="56"/>
+      <c r="F122" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="63" t="s">
+      <c r="H122" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="63" t="s">
+      <c r="I122" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="68"/>
-      <c r="F123" s="64"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="58"/>
       <c r="G123" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H123" s="58"/>
+      <c r="I123" s="58"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -2919,19 +2975,19 @@
     <row r="139" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E139" s="3"/>
       <c r="F139" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G139" s="32">
         <v>0</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="59"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -2948,32 +3004,32 @@
         <v>1</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="68"/>
-      <c r="F142" s="63" t="s">
+      <c r="E142" s="56"/>
+      <c r="F142" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="63" t="s">
+      <c r="H142" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="63" t="s">
+      <c r="I142" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="68"/>
-      <c r="F143" s="64"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="58"/>
       <c r="G143" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="H143" s="58"/>
+      <c r="I143" s="58"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3083,35 +3139,66 @@
     <row r="159" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E159" s="50"/>
       <c r="F159" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G159" s="32">
         <v>0</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="I62:I63"/>
@@ -3127,49 +3214,21 @@
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33481631-CB06-47BE-8543-D9BA8483A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4944CD0-D744-4600-A7B6-91355742C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="7065" yWindow="465" windowWidth="16890" windowHeight="13680" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
   <si>
     <t>Semaine</t>
   </si>
@@ -280,12 +280,6 @@
     <t>commencer de travail(creation des fichier:(journal de travail )</t>
   </si>
   <si>
-    <t>Développement du journal de travail</t>
-  </si>
-  <si>
-    <t>Développement du rapport et des point(planification, Introduction,Maquettes)</t>
-  </si>
-  <si>
     <t>videoa sur Modélisation</t>
   </si>
   <si>
@@ -293,6 +287,33 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=1pW_sk-2y40    etc..</t>
+  </si>
+  <si>
+    <t>MCD-MLD</t>
+  </si>
+  <si>
+    <t>développement du rapport et des point(planification, Introduction,Maquettes)</t>
+  </si>
+  <si>
+    <t>développement du journal de travail</t>
+  </si>
+  <si>
+    <t>développement de  database structure,création MCD MLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création de maquette </t>
+  </si>
+  <si>
+    <t>looping</t>
+  </si>
+  <si>
+    <t>programming</t>
+  </si>
+  <si>
+    <t>Visual studio 2022</t>
+  </si>
+  <si>
+    <t>commencer des travaux sur partie POO du projet (avec C#"windows forms")</t>
   </si>
 </sst>
 </file>
@@ -1029,47 +1050,47 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1387,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1426,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1424,36 +1445,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1542,8 +1563,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1554,15 +1575,15 @@
         <v>32</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1668,8 +1689,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1679,8 +1700,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1690,8 +1711,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1701,8 +1722,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -1719,13 +1740,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1756,40 +1777,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77">
         <v>1</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="79" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57" t="s">
+      <c r="E22" s="69"/>
+      <c r="F22" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="73"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -1805,10 +1826,10 @@
         <v>13</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I24" s="18"/>
     </row>
@@ -1826,7 +1847,7 @@
         <v>58</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>59</v>
@@ -1852,7 +1873,7 @@
         <v>32</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I26" s="18"/>
     </row>
@@ -1867,16 +1888,16 @@
       <c r="D27" s="42"/>
       <c r="E27" s="3"/>
       <c r="F27" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1889,10 +1910,18 @@
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
@@ -1904,10 +1933,18 @@
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
@@ -2074,8 +2111,8 @@
         <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2104,42 +2141,42 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65">
+      <c r="A42" s="76"/>
+      <c r="B42" s="77">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="66"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="58"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2211,8 +2248,8 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2222,8 +2259,8 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2233,8 +2270,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2244,8 +2281,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2255,8 +2292,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2266,8 +2303,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2277,8 +2314,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2288,8 +2325,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="61"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="62"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2299,7 +2336,7 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="62"/>
+      <c r="A57" s="82"/>
       <c r="B57" s="63"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
@@ -2330,8 +2367,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2352,28 +2389,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="56"/>
-      <c r="F62" s="57" t="s">
+      <c r="E62" s="69"/>
+      <c r="F62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="57" t="s">
+      <c r="H62" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="56"/>
-      <c r="F63" s="58"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2494,8 +2531,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2516,28 +2553,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="56"/>
-      <c r="F82" s="57" t="s">
+      <c r="E82" s="69"/>
+      <c r="F82" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="57" t="s">
+      <c r="H82" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="57" t="s">
+      <c r="I82" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="56"/>
-      <c r="F83" s="58"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2658,8 +2695,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2680,28 +2717,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="56"/>
-      <c r="F102" s="57" t="s">
+      <c r="E102" s="69"/>
+      <c r="F102" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="57" t="s">
+      <c r="H102" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="57" t="s">
+      <c r="I102" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="56"/>
-      <c r="F103" s="58"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="65"/>
       <c r="G103" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -2822,8 +2859,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="75"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -2844,28 +2881,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="56"/>
-      <c r="F122" s="57" t="s">
+      <c r="E122" s="69"/>
+      <c r="F122" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="57" t="s">
+      <c r="H122" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="57" t="s">
+      <c r="I122" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="56"/>
-      <c r="F123" s="58"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="65"/>
       <c r="G123" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="58"/>
-      <c r="I123" s="58"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -2986,8 +3023,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
+      <c r="E140" s="75"/>
+      <c r="F140" s="75"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3008,28 +3045,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="56"/>
-      <c r="F142" s="57" t="s">
+      <c r="E142" s="69"/>
+      <c r="F142" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="57" t="s">
+      <c r="H142" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="57" t="s">
+      <c r="I142" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="56"/>
-      <c r="F143" s="58"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="65"/>
       <c r="G143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H143" s="58"/>
-      <c r="I143" s="58"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3150,35 +3187,44 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3194,36 +3240,27 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4944CD0-D744-4600-A7B6-91355742C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597683A-E04B-4C39-B94B-AECC15E46273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="465" windowWidth="16890" windowHeight="13680" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>Semaine</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>commencer des travaux sur partie POO du projet (avec C#"windows forms")</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jcUctrLC-7M           https://www.youtube.com/watch?v=uzAXxFBbVoE</t>
   </si>
 </sst>
 </file>
@@ -1053,44 +1056,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1408,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C33:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,8 +1429,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1445,36 +1448,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1563,8 +1566,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1582,8 +1585,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1689,8 +1692,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1700,8 +1703,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1711,8 +1714,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1722,7 +1725,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="62"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
@@ -1740,13 +1743,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1777,40 +1780,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66">
         <v>1</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="64" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="80"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -1946,7 +1949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="37">
         <v>8</v>
@@ -1956,10 +1959,18 @@
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
@@ -1971,10 +1982,18 @@
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="F31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
@@ -1986,10 +2005,18 @@
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
@@ -2111,8 +2138,8 @@
         <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2141,42 +2168,42 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77">
+      <c r="A42" s="65"/>
+      <c r="B42" s="66">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="64" t="s">
+      <c r="D42" s="68"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2248,7 +2275,7 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="62"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
@@ -2259,7 +2286,7 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="62"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2270,7 +2297,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="62"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2281,7 +2308,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="62"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2292,7 +2319,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="62"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2303,7 +2330,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="62"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2314,7 +2341,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="62"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2325,7 +2352,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="62"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2336,8 +2363,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -2367,8 +2394,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2389,28 +2416,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="69"/>
-      <c r="F62" s="64" t="s">
+      <c r="E62" s="57"/>
+      <c r="F62" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="64" t="s">
+      <c r="H62" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="64" t="s">
+      <c r="I62" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="69"/>
-      <c r="F63" s="65"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="59"/>
       <c r="G63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2531,8 +2558,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2553,28 +2580,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="69"/>
-      <c r="F82" s="64" t="s">
+      <c r="E82" s="57"/>
+      <c r="F82" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="64" t="s">
+      <c r="H82" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="64" t="s">
+      <c r="I82" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="69"/>
-      <c r="F83" s="65"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="59"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2695,8 +2722,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2717,28 +2744,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="69"/>
-      <c r="F102" s="64" t="s">
+      <c r="E102" s="57"/>
+      <c r="F102" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="64" t="s">
+      <c r="H102" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="64" t="s">
+      <c r="I102" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="69"/>
-      <c r="F103" s="65"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="59"/>
       <c r="G103" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -2859,8 +2886,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="75"/>
-      <c r="F120" s="75"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -2881,28 +2908,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="69"/>
-      <c r="F122" s="64" t="s">
+      <c r="E122" s="57"/>
+      <c r="F122" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="64" t="s">
+      <c r="H122" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="64" t="s">
+      <c r="I122" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="69"/>
-      <c r="F123" s="65"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="59"/>
       <c r="G123" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
+      <c r="H123" s="59"/>
+      <c r="I123" s="59"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3023,8 +3050,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="75"/>
-      <c r="F140" s="75"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3045,28 +3072,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="69"/>
-      <c r="F142" s="64" t="s">
+      <c r="E142" s="57"/>
+      <c r="F142" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="64" t="s">
+      <c r="H142" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="64" t="s">
+      <c r="I142" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="69"/>
-      <c r="F143" s="65"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="59"/>
       <c r="G143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65"/>
+      <c r="H143" s="59"/>
+      <c r="I143" s="59"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3187,24 +3214,55 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="60"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="I62:I63"/>
@@ -3220,52 +3278,22 @@
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>
+    <hyperlink ref="I30" r:id="rId2" display="https://www.youtube.com/watch?v=jcUctrLC-7M" xr:uid="{61C737AD-1922-4811-810B-4F6256AF87B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597683A-E04B-4C39-B94B-AECC15E46273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D68205-2A36-4470-8905-79B9FFCA6077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
   <si>
     <t>Semaine</t>
   </si>
@@ -317,6 +317,34 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=jcUctrLC-7M           https://www.youtube.com/watch?v=uzAXxFBbVoE</t>
+  </si>
+  <si>
+    <t>0.2H</t>
+  </si>
+  <si>
+    <t>0.8H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>ABSCENSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2p </t>
+    </r>
+  </si>
+  <si>
+    <t>abscense de 2periodes(rendez-vous medical)</t>
   </si>
 </sst>
 </file>
@@ -922,7 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1056,44 +1084,47 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1411,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C33:C37"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,8 +1460,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1448,36 +1479,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1566,8 +1597,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1585,8 +1616,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1692,8 +1723,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1703,8 +1734,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1714,8 +1745,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1725,7 +1756,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="62"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
@@ -1743,13 +1774,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1780,40 +1811,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77">
         <v>1</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="79" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58" t="s">
+      <c r="E22" s="69"/>
+      <c r="F22" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="59"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2138,8 +2169,8 @@
         <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2168,42 +2199,42 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66">
+      <c r="A42" s="76"/>
+      <c r="B42" s="77">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="67"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="59"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2215,9 +2246,15 @@
       </c>
       <c r="D44" s="47"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="F44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -2230,10 +2267,18 @@
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="F45" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
@@ -2243,10 +2288,16 @@
       <c r="C46" s="46"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="18"/>
+      <c r="F46" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="H46" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="83">
+        <v>45544</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
@@ -2275,7 +2326,7 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="62"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
@@ -2286,7 +2337,7 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="62"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2297,7 +2348,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="62"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2308,7 +2359,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="62"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2319,7 +2370,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="62"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2330,7 +2381,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="62"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2341,7 +2392,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="62"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2352,7 +2403,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="62"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2363,8 +2414,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -2394,8 +2445,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2416,28 +2467,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="57"/>
-      <c r="F62" s="58" t="s">
+      <c r="E62" s="69"/>
+      <c r="F62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="58" t="s">
+      <c r="H62" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="58" t="s">
+      <c r="I62" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="57"/>
-      <c r="F63" s="59"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2558,8 +2609,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2580,28 +2631,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="57"/>
-      <c r="F82" s="58" t="s">
+      <c r="E82" s="69"/>
+      <c r="F82" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="58" t="s">
+      <c r="H82" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="58" t="s">
+      <c r="I82" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="57"/>
-      <c r="F83" s="59"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2722,8 +2773,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2744,28 +2795,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="57"/>
-      <c r="F102" s="58" t="s">
+      <c r="E102" s="69"/>
+      <c r="F102" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="58" t="s">
+      <c r="H102" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="58" t="s">
+      <c r="I102" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="57"/>
-      <c r="F103" s="59"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="65"/>
       <c r="G103" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -2886,8 +2937,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="60"/>
-      <c r="F120" s="60"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="75"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -2908,28 +2959,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="57"/>
-      <c r="F122" s="58" t="s">
+      <c r="E122" s="69"/>
+      <c r="F122" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="58" t="s">
+      <c r="H122" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="58" t="s">
+      <c r="I122" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="57"/>
-      <c r="F123" s="59"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="65"/>
       <c r="G123" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="59"/>
-      <c r="I123" s="59"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3050,8 +3101,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="60"/>
-      <c r="F140" s="60"/>
+      <c r="E140" s="75"/>
+      <c r="F140" s="75"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3072,28 +3123,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="57"/>
-      <c r="F142" s="58" t="s">
+      <c r="E142" s="69"/>
+      <c r="F142" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="58" t="s">
+      <c r="H142" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="58" t="s">
+      <c r="I142" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="57"/>
-      <c r="F143" s="59"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="65"/>
       <c r="G143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H143" s="59"/>
-      <c r="I143" s="59"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3214,35 +3265,44 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="60"/>
-      <c r="F160" s="60"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3258,36 +3318,27 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D68205-2A36-4470-8905-79B9FFCA6077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807CDE0-7C2B-485F-BE0D-1A441D4A31B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="3375" yWindow="1650" windowWidth="16890" windowHeight="13680" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
   <si>
     <t>Semaine</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>abscense de 2periodes(rendez-vous medical)</t>
+  </si>
+  <si>
+    <t>2.5H</t>
+  </si>
+  <si>
+    <t>développement du rapport et des point(UX-UIMaquettes,DATABASE,Utilisation de l'AI)</t>
+  </si>
+  <si>
+    <t>creation des Personas</t>
   </si>
 </sst>
 </file>
@@ -1084,47 +1093,47 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1442,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,8 +1469,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1479,36 +1488,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1597,8 +1606,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1616,8 +1625,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1723,8 +1732,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1734,8 +1743,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1756,8 +1765,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -1774,13 +1783,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1811,40 +1820,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67">
         <v>1</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="64" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="80"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2169,8 +2178,8 @@
         <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2199,42 +2208,42 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="64" t="s">
+      <c r="D42" s="69"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="60"/>
       <c r="G43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2295,11 +2304,11 @@
       <c r="H46" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="83">
+      <c r="I46" s="57">
         <v>45544</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="44">
         <v>24</v>
@@ -2307,9 +2316,15 @@
       <c r="C47" s="46"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="F47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -2320,14 +2335,22 @@
       <c r="C48" s="46"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="F48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2337,8 +2360,8 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2348,8 +2371,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2359,8 +2382,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2370,8 +2393,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2381,8 +2404,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2392,8 +2415,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2403,8 +2426,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="62"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2414,8 +2437,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -2445,8 +2468,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2467,28 +2490,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="69"/>
-      <c r="F62" s="64" t="s">
+      <c r="E62" s="58"/>
+      <c r="F62" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="64" t="s">
+      <c r="H62" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="64" t="s">
+      <c r="I62" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="69"/>
-      <c r="F63" s="65"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2609,8 +2632,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2631,28 +2654,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="69"/>
-      <c r="F82" s="64" t="s">
+      <c r="E82" s="58"/>
+      <c r="F82" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="64" t="s">
+      <c r="H82" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="64" t="s">
+      <c r="I82" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="69"/>
-      <c r="F83" s="65"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2773,8 +2796,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2795,28 +2818,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="69"/>
-      <c r="F102" s="64" t="s">
+      <c r="E102" s="58"/>
+      <c r="F102" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="64" t="s">
+      <c r="H102" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="64" t="s">
+      <c r="I102" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="69"/>
-      <c r="F103" s="65"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="60"/>
       <c r="G103" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -2937,8 +2960,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="75"/>
-      <c r="F120" s="75"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -2959,28 +2982,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="69"/>
-      <c r="F122" s="64" t="s">
+      <c r="E122" s="58"/>
+      <c r="F122" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="64" t="s">
+      <c r="H122" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="64" t="s">
+      <c r="I122" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="69"/>
-      <c r="F123" s="65"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="60"/>
       <c r="G123" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3101,8 +3124,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="75"/>
-      <c r="F140" s="75"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3123,28 +3146,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="69"/>
-      <c r="F142" s="64" t="s">
+      <c r="E142" s="58"/>
+      <c r="F142" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="64" t="s">
+      <c r="H142" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="64" t="s">
+      <c r="I142" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="69"/>
-      <c r="F143" s="65"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="60"/>
       <c r="G143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3265,24 +3288,55 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="61"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="I62:I63"/>
@@ -3298,47 +3352,16 @@
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807CDE0-7C2B-485F-BE0D-1A441D4A31B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191266AD-2583-470B-8CC6-48015290D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1650" windowWidth="16890" windowHeight="13680" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>Semaine</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=jcUctrLC-7M           https://www.youtube.com/watch?v=uzAXxFBbVoE</t>
-  </si>
-  <si>
-    <t>0.2H</t>
   </si>
   <si>
     <t>0.8H</t>
@@ -354,6 +351,12 @@
   </si>
   <si>
     <t>creation des Personas</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>deplacement,sprint,enemy,menu(deplacement in menu),Options(creation and addition of 3 buttons for sound and logos)</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>82</v>
@@ -2280,7 +2283,7 @@
         <v>58</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>59</v>
@@ -2298,11 +2301,11 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I46" s="57">
         <v>45544</v>
@@ -2320,10 +2323,10 @@
         <v>16</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="I47" s="18"/>
     </row>
@@ -2342,22 +2345,30 @@
         <v>32</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A49" s="62"/>
       <c r="B49" s="63"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
+      <c r="F49" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="62"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191266AD-2583-470B-8CC6-48015290D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F0F92D-2CCA-43D0-8864-86BC0F923EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>Semaine</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>deplacement,sprint,enemy,menu(deplacement in menu),Options(creation and addition of 3 buttons for sound and logos)</t>
+  </si>
+  <si>
+    <t>0.3H</t>
   </si>
 </sst>
 </file>
@@ -1099,44 +1102,44 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1454,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,8 +1475,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1491,36 +1494,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="60"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1609,8 +1612,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1628,8 +1631,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1735,8 +1738,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1746,8 +1749,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1757,8 +1760,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1768,7 +1771,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="63"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
@@ -1786,13 +1789,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1823,40 +1826,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67">
+      <c r="A22" s="77"/>
+      <c r="B22" s="78">
         <v>1</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="80" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59" t="s">
+      <c r="E22" s="70"/>
+      <c r="F22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="75"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="60"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2181,8 +2184,8 @@
         <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2211,42 +2214,42 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67">
+      <c r="A42" s="77"/>
+      <c r="B42" s="78">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59" t="s">
+      <c r="D42" s="82"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="59" t="s">
+      <c r="I42" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="60"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2352,7 +2355,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="63"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
@@ -2371,7 +2374,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="63"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2382,7 +2385,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="63"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2393,7 +2396,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="63"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2404,7 +2407,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="63"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2415,7 +2418,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="63"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2426,7 +2429,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="63"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2437,7 +2440,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="63"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2448,8 +2451,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -2479,8 +2482,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2501,49 +2504,71 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="58"/>
-      <c r="F62" s="59" t="s">
+      <c r="E62" s="70"/>
+      <c r="F62" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="58"/>
-      <c r="F63" s="60"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="F64" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E65" s="3"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="F65" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66" s="3"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="F66" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
@@ -2643,8 +2668,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2665,28 +2690,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="58"/>
-      <c r="F82" s="59" t="s">
+      <c r="E82" s="70"/>
+      <c r="F82" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="59" t="s">
+      <c r="H82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="59" t="s">
+      <c r="I82" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="58"/>
-      <c r="F83" s="60"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2807,8 +2832,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2829,28 +2854,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="58"/>
-      <c r="F102" s="59" t="s">
+      <c r="E102" s="70"/>
+      <c r="F102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="59" t="s">
+      <c r="H102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="59" t="s">
+      <c r="I102" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="58"/>
-      <c r="F103" s="60"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="66"/>
       <c r="G103" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -2971,8 +2996,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="61"/>
-      <c r="F120" s="61"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -2993,28 +3018,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="58"/>
-      <c r="F122" s="59" t="s">
+      <c r="E122" s="70"/>
+      <c r="F122" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="59" t="s">
+      <c r="H122" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="59" t="s">
+      <c r="I122" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="58"/>
-      <c r="F123" s="60"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="66"/>
       <c r="G123" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3135,8 +3160,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="61"/>
-      <c r="F140" s="61"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="76"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3157,28 +3182,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="58"/>
-      <c r="F142" s="59" t="s">
+      <c r="E142" s="70"/>
+      <c r="F142" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="59" t="s">
+      <c r="H142" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="59" t="s">
+      <c r="I142" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="58"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="66"/>
       <c r="G143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H143" s="60"/>
-      <c r="I143" s="60"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3299,35 +3324,44 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="61"/>
-      <c r="F160" s="61"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3343,36 +3377,27 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F0F92D-2CCA-43D0-8864-86BC0F923EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A490F-2C36-4C30-9DB5-050A8ACD2B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>Semaine</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>0.3H</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>améliorations(design,buttons,score,images)</t>
+  </si>
+  <si>
+    <t>score(form). Music.pause(founction, form) amelioration general</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2542,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>82</v>
@@ -2570,26 +2579,50 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
+      <c r="F67" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="3"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
+      <c r="F68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="3"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="F69" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A490F-2C36-4C30-9DB5-050A8ACD2B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4827AE76-3910-4E4B-BD27-3E00372FFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
   <si>
     <t>Semaine</t>
   </si>
@@ -1111,44 +1111,44 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,8 +1484,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1503,36 +1503,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1621,8 +1621,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1640,8 +1640,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1747,8 +1747,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1758,8 +1758,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1769,8 +1769,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1780,7 +1780,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="63"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2"/>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1835,40 +1835,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67">
         <v>1</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="65" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="81"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2193,8 +2193,8 @@
         <v>52</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2223,42 +2223,42 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67">
         <v>20</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="65" t="s">
+      <c r="D42" s="69"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="79"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="60"/>
       <c r="G43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="63"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
@@ -2383,7 +2383,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="63"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2394,7 +2394,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="63"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2405,7 +2405,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="63"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2416,7 +2416,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2427,7 +2427,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="63"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2438,7 +2438,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="63"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2449,7 +2449,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="63"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2460,8 +2460,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="83"/>
-      <c r="B57" s="64"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="30"/>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -2491,8 +2491,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2513,28 +2513,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="70"/>
-      <c r="F62" s="65" t="s">
+      <c r="E62" s="58"/>
+      <c r="F62" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="70"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2626,10 +2626,18 @@
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="F70" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" s="3"/>
@@ -2701,8 +2709,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2723,28 +2731,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="70"/>
-      <c r="F82" s="65" t="s">
+      <c r="E82" s="58"/>
+      <c r="F82" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="65" t="s">
+      <c r="H82" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="65" t="s">
+      <c r="I82" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="70"/>
-      <c r="F83" s="66"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -2865,8 +2873,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2887,28 +2895,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="70"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="58"/>
+      <c r="F102" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="70"/>
-      <c r="F103" s="66"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="60"/>
       <c r="G103" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3029,8 +3037,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3051,28 +3059,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="70"/>
-      <c r="F122" s="65" t="s">
+      <c r="E122" s="58"/>
+      <c r="F122" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="65" t="s">
+      <c r="H122" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="65" t="s">
+      <c r="I122" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="70"/>
-      <c r="F123" s="66"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="60"/>
       <c r="G123" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3193,8 +3201,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="76"/>
-      <c r="F140" s="76"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3215,28 +3223,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="70"/>
-      <c r="F142" s="65" t="s">
+      <c r="E142" s="58"/>
+      <c r="F142" s="59" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="65" t="s">
+      <c r="H142" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="65" t="s">
+      <c r="I142" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="70"/>
-      <c r="F143" s="66"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="60"/>
       <c r="G143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="50"/>
@@ -3357,24 +3365,55 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="76"/>
-      <c r="F160" s="76"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="61"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="I62:I63"/>
@@ -3390,47 +3429,16 @@
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4827AE76-3910-4E4B-BD27-3E00372FFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A81AD-DAE9-498F-B563-52F0E9CD231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="11685" yWindow="1740" windowWidth="16890" windowHeight="13680" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
   <si>
     <t>Semaine</t>
   </si>
@@ -130,13 +130,7 @@
     <t>Max. 12</t>
   </si>
   <si>
-    <t>Liste des tâches(PLANIFIQUATIONS)</t>
-  </si>
-  <si>
     <t>Tâche obligatoire:</t>
-  </si>
-  <si>
-    <t>Absence - Imprévus</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -369,6 +363,27 @@
   </si>
   <si>
     <t>score(form). Music.pause(founction, form) amelioration general</t>
+  </si>
+  <si>
+    <t>Temps estime[h]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     Liste des tâches(PLANIFIQUATIONS)</t>
+  </si>
+  <si>
+    <t>Explicationde taches - Absence-Imprévus</t>
+  </si>
+  <si>
+    <t>développement du journal de travail(modifications: liste des taches,temps estime ,maquette de JDT)</t>
+  </si>
+  <si>
+    <t>database modelisation</t>
+  </si>
+  <si>
+    <t>développement du rapport et des point(DATABASEI)</t>
+  </si>
+  <si>
+    <t>skins(form). Music.pausemenu(founction of closing, form) amelioration general(mainmenu,playGame)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,17 +547,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -866,19 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -944,16 +940,25 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -963,7 +968,22 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -974,7 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,34 +1081,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1111,44 +1119,81 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1466,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1520,7 @@
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
     <col min="3" max="3" width="121.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
@@ -1484,8 +1529,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1499,40 +1544,40 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="60"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1540,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -1559,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -1567,13 +1612,13 @@
         <v>10</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1582,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1590,10 +1635,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1617,45 +1662,45 @@
         <v>17</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1747,8 +1792,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1758,10 +1803,10 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="3"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -1769,8 +1814,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1780,10 +1825,10 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="3"/>
       <c r="F19" s="32" t="s">
         <v>25</v>
@@ -1798,28 +1843,30 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>0</v>
@@ -1831,87 +1878,93 @@
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84">
         <v>1</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59" t="s">
+      <c r="D22" s="88">
+        <v>2</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="60"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
-      <c r="B24" s="40">
+      <c r="B24" s="37">
         <v>2</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="42"/>
+      <c r="C24" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="56">
+        <v>2</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="44">
+      <c r="B25" s="40">
         <v>3</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="42"/>
+      <c r="C25" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="57">
+        <v>6</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.25">
@@ -1919,19 +1972,21 @@
       <c r="B26" s="37">
         <v>4</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="42"/>
+      <c r="C26" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="58">
+        <v>4</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I26" s="18"/>
     </row>
@@ -1940,45 +1995,49 @@
       <c r="B27" s="37">
         <v>5</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="58">
+        <v>5</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="50" t="s">
         <v>77</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="56" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
-      <c r="B28" s="44">
+      <c r="B28" s="40">
         <v>6</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="42"/>
+      <c r="C28" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="57">
+        <v>2</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1986,22 +2045,24 @@
       <c r="B29" s="37">
         <v>7</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="42"/>
+      <c r="C29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="58">
+        <v>2</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="I29" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,45 +2070,49 @@
       <c r="B30" s="37">
         <v>8</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="42"/>
+      <c r="C30" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="58">
+        <v>5</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
-      <c r="B31" s="44">
+      <c r="B31" s="40">
         <v>9</v>
       </c>
-      <c r="C31" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="42"/>
+      <c r="C31" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="57">
+        <v>3</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="I31" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -2055,22 +2120,24 @@
       <c r="B32" s="37">
         <v>10</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="58">
+        <v>3</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -2078,10 +2145,12 @@
       <c r="B33" s="37">
         <v>11</v>
       </c>
-      <c r="C33" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="42"/>
+      <c r="C33" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="58">
+        <v>5</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -2090,13 +2159,15 @@
     </row>
     <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="44">
+      <c r="B34" s="40">
         <v>12</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="42"/>
+      <c r="C34" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="57">
+        <v>3</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -2108,10 +2179,12 @@
       <c r="B35" s="37">
         <v>13</v>
       </c>
-      <c r="C35" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="42"/>
+      <c r="C35" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="58">
+        <v>1</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -2123,10 +2196,12 @@
       <c r="B36" s="37">
         <v>14</v>
       </c>
-      <c r="C36" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="42"/>
+      <c r="C36" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="58">
+        <v>2</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -2135,13 +2210,15 @@
     </row>
     <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="44">
+      <c r="B37" s="40">
         <v>15</v>
       </c>
-      <c r="C37" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="42"/>
+      <c r="C37" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="57">
+        <v>6</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -2153,10 +2230,12 @@
       <c r="B38" s="37">
         <v>16</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="42"/>
+      <c r="C38" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="58">
+        <v>3</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -2168,10 +2247,12 @@
       <c r="B39" s="37">
         <v>17</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="42"/>
+      <c r="C39" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="58">
+        <v>2</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="32" t="s">
         <v>25</v>
@@ -2186,15 +2267,17 @@
     </row>
     <row r="40" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35"/>
-      <c r="B40" s="44">
+      <c r="B40" s="40">
         <v>18</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="C40" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="57">
+        <v>5</v>
+      </c>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2204,10 +2287,12 @@
       <c r="B41" s="37">
         <v>19</v>
       </c>
-      <c r="C41" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="47"/>
+      <c r="C41" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="58">
+        <v>4</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
         <v>0</v>
@@ -2219,65 +2304,69 @@
         <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67">
+      <c r="A42" s="83"/>
+      <c r="B42" s="84">
         <v>20</v>
       </c>
-      <c r="C42" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59" t="s">
+      <c r="C42" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="88">
+        <v>4</v>
+      </c>
+      <c r="E42" s="76"/>
+      <c r="F42" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="59" t="s">
+      <c r="I42" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="60"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="89"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="44">
+      <c r="B44" s="40">
         <v>21</v>
       </c>
-      <c r="C44" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="47"/>
+      <c r="C44" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="57">
+        <v>0.5</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I44" s="18"/>
     </row>
@@ -2286,22 +2375,22 @@
       <c r="B45" s="37">
         <v>22</v>
       </c>
-      <c r="C45" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="47"/>
+      <c r="C45" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="58"/>
       <c r="E45" s="3"/>
       <c r="F45" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -2309,82 +2398,82 @@
       <c r="B46" s="37">
         <v>23</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="3"/>
       <c r="F46" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="57">
+        <v>90</v>
+      </c>
+      <c r="I46" s="51">
         <v>45544</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="44">
+      <c r="B47" s="40">
         <v>24</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="2"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="3"/>
       <c r="F47" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
-      <c r="B48" s="48">
+      <c r="B48" s="62">
         <v>25</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="3"/>
       <c r="F48" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2394,8 +2483,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2405,8 +2494,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2416,8 +2505,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2427,8 +2516,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2438,8 +2527,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2449,8 +2538,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2460,10 +2549,10 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="49"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="3"/>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
@@ -2491,8 +2580,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2509,32 +2598,32 @@
         <v>1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="58"/>
-      <c r="F62" s="59" t="s">
+      <c r="E62" s="76"/>
+      <c r="F62" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="58"/>
-      <c r="F63" s="60"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="72"/>
       <c r="G63" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2542,101 +2631,101 @@
         <v>13</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I64" s="18"/>
     </row>
     <row r="65" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E65" s="3"/>
       <c r="F65" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66" s="3"/>
       <c r="F66" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
       <c r="F67" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="3"/>
       <c r="F68" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="3"/>
       <c r="F69" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>
       <c r="F70" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
@@ -2709,8 +2798,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2727,66 +2816,100 @@
         <v>1</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="58"/>
-      <c r="F82" s="59" t="s">
+      <c r="E82" s="76"/>
+      <c r="F82" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="59" t="s">
+      <c r="H82" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="59" t="s">
+      <c r="I82" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="58"/>
-      <c r="F83" s="60"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="72"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+    </row>
+    <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
+      <c r="F84" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" s="39"/>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E85" s="3"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F85" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E86" s="3"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="F86" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E87" s="3"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+      <c r="F87" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="F88" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
@@ -2873,8 +2996,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -2891,39 +3014,39 @@
         <v>1</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="58"/>
-      <c r="F102" s="59" t="s">
+      <c r="E102" s="76"/>
+      <c r="F102" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="59" t="s">
+      <c r="H102" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="59" t="s">
+      <c r="I102" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="58"/>
-      <c r="F103" s="60"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="72"/>
       <c r="G103" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
@@ -3037,8 +3160,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="61"/>
-      <c r="F120" s="61"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3055,39 +3178,39 @@
         <v>1</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="58"/>
-      <c r="F122" s="59" t="s">
+      <c r="E122" s="76"/>
+      <c r="F122" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="59" t="s">
+      <c r="H122" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="59" t="s">
+      <c r="I122" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="58"/>
-      <c r="F123" s="60"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="72"/>
       <c r="G123" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E125" s="3"/>
@@ -3201,14 +3324,14 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="61"/>
-      <c r="F140" s="61"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E141" s="50"/>
+      <c r="E141" s="44"/>
       <c r="F141" s="4" t="s">
         <v>0</v>
       </c>
@@ -3219,140 +3342,140 @@
         <v>1</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="58"/>
-      <c r="F142" s="59" t="s">
+      <c r="E142" s="76"/>
+      <c r="F142" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="59" t="s">
+      <c r="H142" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="59" t="s">
+      <c r="I142" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="58"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="72"/>
       <c r="G143" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H143" s="60"/>
-      <c r="I143" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E144" s="50"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="43"/>
-      <c r="H144" s="43"/>
-      <c r="I144" s="43"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
     </row>
     <row r="145" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E145" s="50"/>
+      <c r="E145" s="44"/>
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E146" s="50"/>
+      <c r="E146" s="44"/>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E147" s="50"/>
+      <c r="E147" s="44"/>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
       <c r="I147" s="18"/>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E148" s="50"/>
+      <c r="E148" s="44"/>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
     </row>
     <row r="149" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E149" s="50"/>
+      <c r="E149" s="44"/>
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
     </row>
     <row r="150" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E150" s="50"/>
+      <c r="E150" s="44"/>
       <c r="F150" s="18"/>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
     </row>
     <row r="151" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E151" s="50"/>
+      <c r="E151" s="44"/>
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
     </row>
     <row r="152" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E152" s="50"/>
+      <c r="E152" s="44"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
     </row>
     <row r="153" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E153" s="50"/>
+      <c r="E153" s="44"/>
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
     </row>
     <row r="154" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="50"/>
+      <c r="E154" s="44"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
     </row>
     <row r="155" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E155" s="50"/>
+      <c r="E155" s="44"/>
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
     </row>
     <row r="156" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E156" s="50"/>
+      <c r="E156" s="44"/>
       <c r="F156" s="29"/>
       <c r="G156" s="29"/>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
     </row>
     <row r="157" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E157" s="50"/>
+      <c r="E157" s="44"/>
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
     </row>
     <row r="158" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E158" s="50"/>
+      <c r="E158" s="44"/>
       <c r="F158" s="31"/>
       <c r="G158" s="31"/>
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
     <row r="159" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E159" s="50"/>
+      <c r="E159" s="44"/>
       <c r="F159" s="32" t="s">
         <v>25</v>
       </c>
@@ -3365,35 +3488,44 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="61"/>
-      <c r="F160" s="61"/>
+      <c r="E160" s="82"/>
+      <c r="F160" s="82"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+  <mergeCells count="67">
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3409,36 +3541,28 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A81AD-DAE9-498F-B563-52F0E9CD231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907EC48A-741E-4F0A-8830-7292325B5388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11685" yWindow="1740" windowWidth="16890" windowHeight="13680" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
   <si>
     <t>Semaine</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>skins(form). Music.pausemenu(founction of closing, form) amelioration general(mainmenu,playGame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Music dans tout le programme , parameters,method…</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,10 +2917,18 @@
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E89" s="3"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="F89" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907EC48A-741E-4F0A-8830-7292325B5388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531300A-C538-4C1E-87B9-DFCBCE09559A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>Semaine</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Music dans tout le programme , parameters,method…</t>
+  </si>
+  <si>
+    <t>0.4H</t>
   </si>
 </sst>
 </file>
@@ -1154,49 +1157,49 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1514,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,8 +1535,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1551,36 +1554,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1669,8 +1672,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1688,8 +1691,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1795,8 +1798,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1806,8 +1809,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1828,7 +1831,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="69"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
@@ -1846,13 +1849,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="81"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1885,42 +1888,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73">
         <v>1</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="75">
         <v>2</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="72"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2279,8 +2282,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2311,44 +2314,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84">
+      <c r="A42" s="72"/>
+      <c r="B42" s="73">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="75">
         <v>4</v>
       </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="71" t="s">
+      <c r="E42" s="64"/>
+      <c r="F42" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="71" t="s">
+      <c r="I42" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="72"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2456,7 +2459,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="69"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
@@ -2475,7 +2478,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="69"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2486,7 +2489,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="69"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2497,7 +2500,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="69"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2508,7 +2511,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="69"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2519,7 +2522,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="69"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2530,7 +2533,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="69"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2541,7 +2544,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="69"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2552,8 +2555,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2583,8 +2586,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2605,28 +2608,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="76"/>
-      <c r="F62" s="71" t="s">
+      <c r="E62" s="64"/>
+      <c r="F62" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="71" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="71" t="s">
+      <c r="I62" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="76"/>
-      <c r="F63" s="72"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2801,8 +2804,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2823,28 +2826,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="76"/>
-      <c r="F82" s="71" t="s">
+      <c r="E82" s="64"/>
+      <c r="F82" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="71" t="s">
+      <c r="H82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="71" t="s">
+      <c r="I82" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="76"/>
-      <c r="F83" s="72"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3007,8 +3010,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3029,49 +3032,71 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="76"/>
-      <c r="F102" s="71" t="s">
+      <c r="E102" s="64"/>
+      <c r="F102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="71" t="s">
+      <c r="H102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="76"/>
-      <c r="F103" s="72"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="66"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-    </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+    </row>
+    <row r="104" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
+      <c r="F104" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="I104" s="39"/>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
+      <c r="F105" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E106" s="3"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+      <c r="F106" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
@@ -3171,8 +3196,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3193,28 +3218,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="76"/>
-      <c r="F122" s="71" t="s">
+      <c r="E122" s="64"/>
+      <c r="F122" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="71" t="s">
+      <c r="H122" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="71" t="s">
+      <c r="I122" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="76"/>
-      <c r="F123" s="72"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="66"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3335,8 +3360,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3357,28 +3382,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="76"/>
-      <c r="F142" s="71" t="s">
+      <c r="E142" s="64"/>
+      <c r="F142" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="71" t="s">
+      <c r="H142" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="71" t="s">
+      <c r="I142" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="76"/>
-      <c r="F143" s="72"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="66"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="72"/>
-      <c r="I143" s="72"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3499,24 +3524,56 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="82"/>
-      <c r="F160" s="82"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="I62:I63"/>
@@ -3532,48 +3589,16 @@
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531300A-C538-4C1E-87B9-DFCBCE09559A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A4751-2386-4A2E-AC55-0277730E5D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
   <si>
     <t>Semaine</t>
   </si>
@@ -390,6 +390,16 @@
   </si>
   <si>
     <t>0.4H</t>
+  </si>
+  <si>
+    <t>creation de maquette (a. README à la racine contient votre Nom, prénom et classe ****
+b. Une archive ZIP avec les éléments UX 
+c. Une archive ZIP avec les éléments DB *****
+d. Une archive ZIP avec les éléments POO 
+e. [Code source inclus automatiquement] )</t>
+  </si>
+  <si>
+    <t>skins (cy_27 level). Music.pausemenu(founction of closing, form) amelioration general(mainmenu,playGame)</t>
   </si>
 </sst>
 </file>
@@ -1157,49 +1167,49 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1517,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="D91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,8 +1545,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1554,36 +1564,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1672,8 +1682,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1691,8 +1701,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1798,8 +1808,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1809,8 +1819,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1831,7 +1841,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="69"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
@@ -1849,13 +1859,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1888,42 +1898,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84">
         <v>1</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="88">
         <v>2</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65" t="s">
+      <c r="E22" s="76"/>
+      <c r="F22" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2282,8 +2292,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2314,44 +2324,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="73">
+      <c r="A42" s="83"/>
+      <c r="B42" s="84">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="88">
         <v>4</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="65" t="s">
+      <c r="E42" s="76"/>
+      <c r="F42" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="72"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2459,7 +2469,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="69"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
@@ -2478,7 +2488,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="69"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2489,7 +2499,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="69"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2500,7 +2510,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="69"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2511,7 +2521,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="69"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2522,7 +2532,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="69"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2533,7 +2543,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="69"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2544,7 +2554,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="69"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2555,8 +2565,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2586,8 +2596,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2608,28 +2618,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="64"/>
-      <c r="F62" s="65" t="s">
+      <c r="E62" s="76"/>
+      <c r="F62" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="64"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="72"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2804,8 +2814,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2826,28 +2836,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="64"/>
-      <c r="F82" s="65" t="s">
+      <c r="E82" s="76"/>
+      <c r="F82" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="65" t="s">
+      <c r="H82" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="65" t="s">
+      <c r="I82" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="64"/>
-      <c r="F83" s="66"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="72"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3010,8 +3020,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3032,28 +3042,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="64"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="76"/>
+      <c r="F102" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="64"/>
-      <c r="F103" s="66"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="72"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
     </row>
     <row r="104" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3098,19 +3108,33 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:9" ht="81" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="F107" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
+      <c r="F108" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E109" s="3"/>
@@ -3196,8 +3220,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3218,28 +3242,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="64"/>
-      <c r="F122" s="65" t="s">
+      <c r="E122" s="76"/>
+      <c r="F122" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="65" t="s">
+      <c r="H122" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="65" t="s">
+      <c r="I122" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="64"/>
-      <c r="F123" s="66"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="72"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3360,8 +3384,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3382,28 +3406,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="64"/>
-      <c r="F142" s="65" t="s">
+      <c r="E142" s="76"/>
+      <c r="F142" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="65" t="s">
+      <c r="H142" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="65" t="s">
+      <c r="I142" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="64"/>
-      <c r="F143" s="66"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="72"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3524,36 +3548,44 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
+      <c r="E160" s="82"/>
+      <c r="F160" s="82"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3569,36 +3601,28 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A4751-2386-4A2E-AC55-0277730E5D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737BD686-2F54-464E-B81E-F28A99DD770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
   <si>
     <t>Semaine</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>skins (cy_27 level). Music.pausemenu(founction of closing, form) amelioration general(mainmenu,playGame)</t>
+  </si>
+  <si>
+    <t>UX(personas (garcon)+ redaction des personnas existantes + modelisation des nouveaux niveaux); modification des button dans le programme+blaster shots+models of ships</t>
   </si>
 </sst>
 </file>
@@ -1167,49 +1170,49 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1527,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="D104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,8 +1548,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1564,36 +1567,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1682,8 +1685,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1701,8 +1704,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1808,8 +1811,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1819,8 +1822,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1841,7 +1844,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="69"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
@@ -1859,13 +1862,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="81"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1898,42 +1901,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73">
         <v>1</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="75">
         <v>2</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="72"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2292,8 +2295,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2324,44 +2327,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84">
+      <c r="A42" s="72"/>
+      <c r="B42" s="73">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="75">
         <v>4</v>
       </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="71" t="s">
+      <c r="E42" s="64"/>
+      <c r="F42" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="71" t="s">
+      <c r="I42" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="72"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2469,7 +2472,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="69"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
@@ -2488,7 +2491,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="69"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2499,7 +2502,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="69"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2510,7 +2513,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="69"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2521,7 +2524,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="69"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2532,7 +2535,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="69"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2543,7 +2546,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="69"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2554,7 +2557,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="69"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2565,8 +2568,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2596,8 +2599,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2618,28 +2621,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="76"/>
-      <c r="F62" s="71" t="s">
+      <c r="E62" s="64"/>
+      <c r="F62" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="71" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="71" t="s">
+      <c r="I62" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="76"/>
-      <c r="F63" s="72"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2814,8 +2817,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2836,28 +2839,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="76"/>
-      <c r="F82" s="71" t="s">
+      <c r="E82" s="64"/>
+      <c r="F82" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="71" t="s">
+      <c r="H82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="71" t="s">
+      <c r="I82" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="76"/>
-      <c r="F83" s="72"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3020,8 +3023,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3042,28 +3045,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="76"/>
-      <c r="F102" s="71" t="s">
+      <c r="E102" s="64"/>
+      <c r="F102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="71" t="s">
+      <c r="H102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="76"/>
-      <c r="F103" s="72"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="66"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
     </row>
     <row r="104" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3136,12 +3139,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E109" s="3"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="F109" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
@@ -3220,8 +3231,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3242,28 +3253,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="76"/>
-      <c r="F122" s="71" t="s">
+      <c r="E122" s="64"/>
+      <c r="F122" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="71" t="s">
+      <c r="H122" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="71" t="s">
+      <c r="I122" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="76"/>
-      <c r="F123" s="72"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="66"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3384,8 +3395,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3406,28 +3417,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="76"/>
-      <c r="F142" s="71" t="s">
+      <c r="E142" s="64"/>
+      <c r="F142" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="71" t="s">
+      <c r="H142" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="71" t="s">
+      <c r="I142" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="76"/>
-      <c r="F143" s="72"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="66"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="72"/>
-      <c r="I143" s="72"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3548,24 +3559,56 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="82"/>
-      <c r="F160" s="82"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="I62:I63"/>
@@ -3581,48 +3624,16 @@
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737BD686-2F54-464E-B81E-F28A99DD770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8F7D6-24CB-4BDF-9832-338CEB06B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>Semaine</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>UX(personas (garcon)+ redaction des personnas existantes + modelisation des nouveaux niveaux); modification des button dans le programme+blaster shots+models of ships</t>
+  </si>
+  <si>
+    <t>programing(deplacement of spaceship, missile operations)</t>
+  </si>
+  <si>
+    <t>3.5H</t>
   </si>
 </sst>
 </file>
@@ -1170,49 +1176,49 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1530,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="D95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,8 +1554,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1567,36 +1573,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1685,8 +1691,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1704,8 +1710,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1811,8 +1817,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1822,8 +1828,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1844,7 +1850,7 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="69"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
@@ -1862,13 +1868,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1901,42 +1907,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84">
         <v>1</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="88">
         <v>2</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65" t="s">
+      <c r="E22" s="76"/>
+      <c r="F22" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2295,8 +2301,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2327,44 +2333,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="73">
+      <c r="A42" s="83"/>
+      <c r="B42" s="84">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="88">
         <v>4</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="65" t="s">
+      <c r="E42" s="76"/>
+      <c r="F42" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="72"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2472,7 +2478,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="69"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
@@ -2491,7 +2497,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="69"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
@@ -2502,7 +2508,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="69"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
@@ -2513,7 +2519,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="69"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
@@ -2524,7 +2530,7 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="69"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
@@ -2535,7 +2541,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="69"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
@@ -2546,7 +2552,7 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="69"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
@@ -2557,7 +2563,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="69"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
@@ -2568,8 +2574,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2599,8 +2605,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2621,28 +2627,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="64"/>
-      <c r="F62" s="65" t="s">
+      <c r="E62" s="76"/>
+      <c r="F62" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="64"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="72"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2817,8 +2823,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2839,28 +2845,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="64"/>
-      <c r="F82" s="65" t="s">
+      <c r="E82" s="76"/>
+      <c r="F82" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="65" t="s">
+      <c r="H82" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="65" t="s">
+      <c r="I82" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="64"/>
-      <c r="F83" s="66"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="72"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3023,8 +3029,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3045,28 +3051,28 @@
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="64"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="76"/>
+      <c r="F102" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="64"/>
-      <c r="F103" s="66"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="72"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
     </row>
     <row r="104" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3156,9 +3162,15 @@
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="F110" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="I110" s="18"/>
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.25">
@@ -3231,8 +3243,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3253,28 +3265,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="64"/>
-      <c r="F122" s="65" t="s">
+      <c r="E122" s="76"/>
+      <c r="F122" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="65" t="s">
+      <c r="H122" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="65" t="s">
+      <c r="I122" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="64"/>
-      <c r="F123" s="66"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="72"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3395,8 +3407,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3417,28 +3429,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="64"/>
-      <c r="F142" s="65" t="s">
+      <c r="E142" s="76"/>
+      <c r="F142" s="71" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="65" t="s">
+      <c r="H142" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="65" t="s">
+      <c r="I142" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="64"/>
-      <c r="F143" s="66"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="72"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3559,36 +3571,44 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
+      <c r="E160" s="82"/>
+      <c r="F160" s="82"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3604,36 +3624,28 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8F7D6-24CB-4BDF-9832-338CEB06B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08995FE1-456D-49AB-A7B2-1D958829C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="118">
   <si>
     <t>Semaine</t>
   </si>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>3.5H</t>
+  </si>
+  <si>
+    <t>travail a la maison</t>
+  </si>
+  <si>
+    <t>0.15H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modif de maquette </t>
+  </si>
+  <si>
+    <t>***travail a la maison****: music(options buttons (sound- and sound+)(api), intelligent  Library path),skins(add(forms + new levels)), timer for ship movement</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1176,6 +1188,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1183,8 +1198,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1534,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="D85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,11 +1564,15 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="74" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="57.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1573,36 +1590,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1691,8 +1708,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1710,8 +1727,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1817,8 +1834,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1828,8 +1845,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1839,8 +1856,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1850,8 +1867,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1868,13 +1885,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="81"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1907,42 +1924,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85">
         <v>1</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="89">
         <v>2</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="72"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2301,8 +2318,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2333,44 +2350,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="89">
         <v>4</v>
       </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="71" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="71" t="s">
+      <c r="I42" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="72"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2478,8 +2495,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2497,8 +2514,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2508,8 +2525,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2519,8 +2536,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="69"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2530,8 +2547,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="69"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2541,8 +2558,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="69"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2552,8 +2569,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2563,8 +2580,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2574,8 +2591,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2605,8 +2622,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2627,28 +2644,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="76"/>
-      <c r="F62" s="71" t="s">
+      <c r="E62" s="77"/>
+      <c r="F62" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="71" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="71" t="s">
+      <c r="I62" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="76"/>
-      <c r="F63" s="72"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2823,8 +2840,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2845,28 +2862,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="76"/>
-      <c r="F82" s="71" t="s">
+      <c r="E82" s="77"/>
+      <c r="F82" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="71" t="s">
+      <c r="H82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="71" t="s">
+      <c r="I82" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="76"/>
-      <c r="F83" s="72"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3001,21 +3018,21 @@
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E97" s="3"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
     </row>
-    <row r="98" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E98" s="3"/>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E99" s="3"/>
       <c r="F99" s="32" t="s">
         <v>25</v>
@@ -3028,14 +3045,17 @@
       </c>
       <c r="I99" s="34"/>
     </row>
-    <row r="100" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
+    <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
-    </row>
-    <row r="101" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="5:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E101" s="3"/>
       <c r="F101" s="4" t="s">
         <v>0</v>
@@ -3049,32 +3069,62 @@
       <c r="I101" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="76"/>
-      <c r="F102" s="71" t="s">
+      <c r="K101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L101" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N101" s="64">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="77"/>
+      <c r="F102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="71" t="s">
+      <c r="H102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="76"/>
-      <c r="F103" s="72"/>
+      <c r="K102" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="77"/>
+      <c r="F103" s="66"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-    </row>
-    <row r="104" spans="5:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+    </row>
+    <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
       <c r="F104" s="18" t="s">
         <v>13</v>
@@ -3086,8 +3136,18 @@
         <v>103</v>
       </c>
       <c r="I104" s="39"/>
-    </row>
-    <row r="105" spans="5:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="K104" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="N104" s="39"/>
+    </row>
+    <row r="105" spans="5:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
       <c r="F105" s="18" t="s">
         <v>84</v>
@@ -3101,8 +3161,20 @@
       <c r="I105" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="K105" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M105" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N105" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E106" s="3"/>
       <c r="F106" s="18" t="s">
         <v>56</v>
@@ -3116,8 +3188,20 @@
       <c r="I106" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="107" spans="5:9" ht="81" x14ac:dyDescent="0.25">
+      <c r="K106" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M106" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="5:14" ht="81" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
       <c r="F107" s="18" t="s">
         <v>104</v>
@@ -3130,7 +3214,7 @@
       </c>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="5:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:14" ht="27" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
       <c r="F108" s="18" t="s">
         <v>84</v>
@@ -3145,7 +3229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="5:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E109" s="3"/>
       <c r="F109" s="18" t="s">
         <v>56</v>
@@ -3160,7 +3244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
       <c r="F110" s="18" t="s">
         <v>84</v>
@@ -3173,14 +3257,14 @@
       </c>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E111" s="3"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E112" s="3"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -3243,8 +3327,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3265,28 +3349,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="76"/>
-      <c r="F122" s="71" t="s">
+      <c r="E122" s="77"/>
+      <c r="F122" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="71" t="s">
+      <c r="H122" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="71" t="s">
+      <c r="I122" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="76"/>
-      <c r="F123" s="72"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="66"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3407,8 +3491,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3429,28 +3513,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="76"/>
-      <c r="F142" s="71" t="s">
+      <c r="E142" s="77"/>
+      <c r="F142" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="71" t="s">
+      <c r="H142" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="71" t="s">
+      <c r="I142" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="76"/>
-      <c r="F143" s="72"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="66"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="72"/>
-      <c r="I143" s="72"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3571,14 +3655,14 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="82"/>
-      <c r="F160" s="82"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="83"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="70">
     <mergeCell ref="E142:E143"/>
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E160:F160"/>
@@ -3624,7 +3708,6 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
@@ -3634,6 +3717,14 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A8:B8"/>
@@ -3641,11 +3732,7 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08995FE1-456D-49AB-A7B2-1D958829C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA23CC5-2FAB-4701-B53B-8BE64B37C5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
   <si>
     <t>Semaine</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>***travail a la maison****: music(options buttons (sound- and sound+)(api), intelligent  Library path),skins(add(forms + new levels)), timer for ship movement</t>
+  </si>
+  <si>
+    <t>développement du rapport et des point(UX-UIMaquettes)</t>
   </si>
 </sst>
 </file>
@@ -1189,49 +1192,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1549,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" topLeftCell="E103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,8 +1574,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1590,36 +1593,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1708,8 +1711,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1727,8 +1730,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1834,8 +1837,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1845,8 +1848,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1856,8 +1859,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1867,8 +1870,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1885,13 +1888,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1924,42 +1927,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74">
         <v>1</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="76">
         <v>2</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="65" t="s">
+      <c r="E22" s="65"/>
+      <c r="F22" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2318,8 +2321,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2350,44 +2353,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85">
+      <c r="A42" s="73"/>
+      <c r="B42" s="74">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="89">
+      <c r="D42" s="76">
         <v>4</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="65" t="s">
+      <c r="E42" s="65"/>
+      <c r="F42" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2495,8 +2498,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2514,8 +2517,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2525,8 +2528,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2536,8 +2539,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2547,8 +2550,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2558,8 +2561,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2569,8 +2572,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2580,8 +2583,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2591,8 +2594,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2622,8 +2625,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2644,28 +2647,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="77"/>
-      <c r="F62" s="65" t="s">
+      <c r="E62" s="65"/>
+      <c r="F62" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="77"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2840,8 +2843,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2862,28 +2865,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="77"/>
-      <c r="F82" s="65" t="s">
+      <c r="E82" s="65"/>
+      <c r="F82" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="65" t="s">
+      <c r="H82" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="65" t="s">
+      <c r="I82" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="77"/>
-      <c r="F83" s="66"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="67"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3046,8 +3049,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3083,46 +3086,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="77"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="65"/>
+      <c r="F102" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="65" t="s">
+      <c r="K102" s="66" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="65" t="s">
+      <c r="M102" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="65" t="s">
+      <c r="N102" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="77"/>
-      <c r="F103" s="66"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="67"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="K103" s="66"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3327,8 +3330,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3349,48 +3352,68 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="77"/>
-      <c r="F122" s="65" t="s">
+      <c r="E122" s="65"/>
+      <c r="F122" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="65" t="s">
+      <c r="H122" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="65" t="s">
+      <c r="I122" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="77"/>
-      <c r="F123" s="66"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="67"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-    </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+    </row>
+    <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
+      <c r="F124" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="I124" s="39"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E125" s="3"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
+      <c r="F125" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="126" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E126" s="3"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="F126" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="I126" s="18"/>
     </row>
     <row r="127" spans="5:9" x14ac:dyDescent="0.25">
@@ -3491,8 +3514,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3513,28 +3536,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="77"/>
-      <c r="F142" s="65" t="s">
+      <c r="E142" s="65"/>
+      <c r="F142" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="65" t="s">
+      <c r="H142" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="65" t="s">
+      <c r="I142" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="77"/>
-      <c r="F143" s="66"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="67"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3655,68 +3678,14 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3733,6 +3702,60 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA23CC5-2FAB-4701-B53B-8BE64B37C5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B57E1-F571-4B2F-BEC6-CF1472B3CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
   <si>
     <t>Semaine</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>développement du rapport et des point(UX-UIMaquettes)</t>
+  </si>
+  <si>
+    <t>level 3 MOVEUP MOVEDOWN,GAMEOVER</t>
+  </si>
+  <si>
+    <t>0.7H</t>
   </si>
 </sst>
 </file>
@@ -1192,49 +1198,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1552,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,8 +1580,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84"/>
-      <c r="B1" s="85"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1593,36 +1599,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1711,8 +1717,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1730,8 +1736,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1837,8 +1843,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1848,8 +1854,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1859,8 +1865,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1870,8 +1876,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1888,13 +1894,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1927,42 +1933,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85">
         <v>1</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="89">
         <v>2</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="67"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2321,8 +2327,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2353,44 +2359,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="76">
+      <c r="D42" s="89">
         <v>4</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="73"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="67"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2498,8 +2504,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2517,8 +2523,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2528,8 +2534,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2539,8 +2545,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2550,8 +2556,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2561,8 +2567,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2572,8 +2578,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2583,8 +2589,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="70"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2594,8 +2600,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="71"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2625,8 +2631,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2647,28 +2653,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="65"/>
-      <c r="F62" s="66" t="s">
+      <c r="E62" s="77"/>
+      <c r="F62" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="66" t="s">
+      <c r="I62" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="65"/>
-      <c r="F63" s="67"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2843,8 +2849,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2865,28 +2871,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="65"/>
-      <c r="F82" s="66" t="s">
+      <c r="E82" s="77"/>
+      <c r="F82" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="66" t="s">
+      <c r="I82" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="65"/>
-      <c r="F83" s="67"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3049,8 +3055,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3086,46 +3092,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="65"/>
-      <c r="F102" s="66" t="s">
+      <c r="E102" s="77"/>
+      <c r="F102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="66" t="s">
+      <c r="H102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="66" t="s">
+      <c r="I102" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="66" t="s">
+      <c r="K102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="66" t="s">
+      <c r="M102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="66" t="s">
+      <c r="N102" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="65"/>
-      <c r="F103" s="67"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="66"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="K103" s="67"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="K103" s="66"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="67"/>
-      <c r="N103" s="67"/>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3330,8 +3336,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3352,28 +3358,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="65"/>
-      <c r="F122" s="66" t="s">
+      <c r="E122" s="77"/>
+      <c r="F122" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="66" t="s">
+      <c r="H122" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="66" t="s">
+      <c r="I122" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="65"/>
-      <c r="F123" s="67"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="66"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3418,9 +3424,15 @@
     </row>
     <row r="127" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E127" s="3"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
+      <c r="F127" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="I127" s="18"/>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.25">
@@ -3514,8 +3526,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3536,28 +3548,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="65"/>
-      <c r="F142" s="66" t="s">
+      <c r="E142" s="77"/>
+      <c r="F142" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="66" t="s">
+      <c r="H142" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="66" t="s">
+      <c r="I142" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="65"/>
-      <c r="F143" s="67"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="66"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3678,14 +3690,68 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="83"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3702,60 +3768,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B57E1-F571-4B2F-BEC6-CF1472B3CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AF612-C927-4529-9E21-0DF116BD7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="1350" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="124">
   <si>
     <t>Semaine</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>0.7H</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>0.1H</t>
+  </si>
+  <si>
+    <t>modification de cdc</t>
   </si>
 </sst>
 </file>
@@ -1198,49 +1207,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1558,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="E114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,8 +1589,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1599,36 +1608,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1717,8 +1726,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1736,8 +1745,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1843,8 +1852,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1854,8 +1863,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1865,8 +1874,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1876,8 +1885,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1894,13 +1903,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1933,42 +1942,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74">
         <v>1</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="76">
         <v>2</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="65" t="s">
+      <c r="E22" s="65"/>
+      <c r="F22" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2327,8 +2336,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2359,44 +2368,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85">
+      <c r="A42" s="73"/>
+      <c r="B42" s="74">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="89">
+      <c r="D42" s="76">
         <v>4</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="65" t="s">
+      <c r="E42" s="65"/>
+      <c r="F42" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2504,8 +2513,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="52"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2523,8 +2532,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2534,8 +2543,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2545,8 +2554,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2556,8 +2565,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2567,8 +2576,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2578,8 +2587,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2589,8 +2598,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2600,8 +2609,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2631,8 +2640,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2653,28 +2662,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="77"/>
-      <c r="F62" s="65" t="s">
+      <c r="E62" s="65"/>
+      <c r="F62" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="77"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2849,8 +2858,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2871,28 +2880,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="77"/>
-      <c r="F82" s="65" t="s">
+      <c r="E82" s="65"/>
+      <c r="F82" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="65" t="s">
+      <c r="H82" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="65" t="s">
+      <c r="I82" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="77"/>
-      <c r="F83" s="66"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="67"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3055,8 +3064,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3092,46 +3101,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="77"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="65"/>
+      <c r="F102" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="65" t="s">
+      <c r="K102" s="66" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="65" t="s">
+      <c r="M102" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="65" t="s">
+      <c r="N102" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="77"/>
-      <c r="F103" s="66"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="67"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="K103" s="66"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3336,8 +3345,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3358,28 +3367,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="77"/>
-      <c r="F122" s="65" t="s">
+      <c r="E122" s="65"/>
+      <c r="F122" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="65" t="s">
+      <c r="H122" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="65" t="s">
+      <c r="I122" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="77"/>
-      <c r="F123" s="66"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="67"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
     </row>
     <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3437,16 +3446,28 @@
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E128" s="3"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
+      <c r="F128" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="I128" s="18"/>
     </row>
     <row r="129" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E129" s="3"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
+      <c r="F129" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="I129" s="18"/>
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.25">
@@ -3526,8 +3547,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3548,28 +3569,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="77"/>
-      <c r="F142" s="65" t="s">
+      <c r="E142" s="65"/>
+      <c r="F142" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="65" t="s">
+      <c r="H142" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="65" t="s">
+      <c r="I142" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="77"/>
-      <c r="F143" s="66"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="67"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3690,68 +3711,14 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3768,6 +3735,60 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AF612-C927-4529-9E21-0DF116BD7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6EF5A-2C39-46B8-BE1B-390603CC493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>Semaine</t>
   </si>
@@ -440,12 +440,21 @@
   <si>
     <t>modification de cdc</t>
   </si>
+  <si>
+    <t>enemies, bullets, game end, game victory</t>
+  </si>
+  <si>
+    <t>développement du rapport et des point(UX-UIMaquettes) images</t>
+  </si>
+  <si>
+    <t>modification des button dans le programme+blaster shots+models of ships et images</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +546,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1049,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1207,49 +1222,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1567,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,8 +1605,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84"/>
-      <c r="B1" s="85"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1608,36 +1624,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1726,8 +1742,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1745,8 +1761,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1852,8 +1868,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1863,8 +1879,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1874,8 +1890,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1885,8 +1901,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1903,13 +1919,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1942,42 +1958,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85">
         <v>1</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="89">
         <v>2</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="67"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2336,8 +2352,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2368,44 +2384,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="76">
+      <c r="D42" s="89">
         <v>4</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="73"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="67"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2513,10 +2529,13 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="92">
+        <f>SUM(D22:D48)</f>
+        <v>69.5</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="18" t="s">
         <v>84</v>
@@ -2532,8 +2551,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2543,8 +2562,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2554,8 +2573,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2565,8 +2584,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2576,8 +2595,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2587,8 +2606,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2598,8 +2617,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="70"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2609,8 +2628,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="71"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2640,8 +2659,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2662,28 +2681,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="65"/>
-      <c r="F62" s="66" t="s">
+      <c r="E62" s="77"/>
+      <c r="F62" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="66" t="s">
+      <c r="I62" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="65"/>
-      <c r="F63" s="67"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2858,8 +2877,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2880,28 +2899,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="65"/>
-      <c r="F82" s="66" t="s">
+      <c r="E82" s="77"/>
+      <c r="F82" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="66" t="s">
+      <c r="I82" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="65"/>
-      <c r="F83" s="67"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3064,8 +3083,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3101,46 +3120,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="65"/>
-      <c r="F102" s="66" t="s">
+      <c r="E102" s="77"/>
+      <c r="F102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="66" t="s">
+      <c r="H102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="66" t="s">
+      <c r="I102" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="66" t="s">
+      <c r="K102" s="65" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="66" t="s">
+      <c r="M102" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="66" t="s">
+      <c r="N102" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="65"/>
-      <c r="F103" s="67"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="66"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="K103" s="67"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="K103" s="66"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="67"/>
-      <c r="N103" s="67"/>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3345,8 +3364,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3367,28 +3386,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="65"/>
-      <c r="F122" s="66" t="s">
+      <c r="E122" s="77"/>
+      <c r="F122" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="66" t="s">
+      <c r="H122" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="66" t="s">
+      <c r="I122" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="65"/>
-      <c r="F123" s="67"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="66"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3547,8 +3566,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3569,55 +3588,79 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="65"/>
-      <c r="F142" s="66" t="s">
+      <c r="E142" s="77"/>
+      <c r="F142" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="66" t="s">
+      <c r="H142" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="66" t="s">
+      <c r="I142" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="65"/>
-      <c r="F143" s="67"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="66"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-    </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
+    </row>
+    <row r="144" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
+      <c r="F144" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="I144" s="39"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E145" s="44"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
+      <c r="F145" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="I145" s="18"/>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="44"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
+      <c r="F146" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="I146" s="18"/>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E147" s="44"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="F147" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="I147" s="18"/>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.25">
@@ -3711,14 +3754,68 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="83"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3735,60 +3832,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6EF5A-2C39-46B8-BE1B-390603CC493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823CFCF-F8CB-4597-AE08-CC16D9C4C492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="130">
   <si>
     <t>Semaine</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>modification des button dans le programme+blaster shots+models of ships et images</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>enemies, bullets, game end, game victory(modification)</t>
+  </si>
+  <si>
+    <t>Backup / Restore    ,Création des index, Gestion des utilisateurs</t>
   </si>
 </sst>
 </file>
@@ -1222,50 +1231,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1583,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,8 +1614,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1624,36 +1633,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1742,8 +1751,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1761,8 +1770,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1800,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="25">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -1868,8 +1877,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1879,8 +1888,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1890,8 +1899,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1901,8 +1910,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1919,13 +1928,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1958,42 +1967,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75">
         <v>1</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="77">
         <v>2</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="65" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2352,8 +2361,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2384,44 +2393,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85">
+      <c r="A42" s="74"/>
+      <c r="B42" s="75">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="89">
+      <c r="D42" s="77">
         <v>4</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="65" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2529,10 +2538,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="92">
+      <c r="D49" s="65">
         <f>SUM(D22:D48)</f>
         <v>69.5</v>
       </c>
@@ -2551,8 +2560,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2562,8 +2571,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2573,8 +2582,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2584,8 +2593,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2595,8 +2604,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2606,8 +2615,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2617,8 +2626,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2628,7 +2637,7 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="73"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -2659,8 +2668,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2681,28 +2690,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="77"/>
-      <c r="F62" s="65" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="77"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2877,8 +2886,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2899,28 +2908,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="77"/>
-      <c r="F82" s="65" t="s">
+      <c r="E82" s="66"/>
+      <c r="F82" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="65" t="s">
+      <c r="H82" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="65" t="s">
+      <c r="I82" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="77"/>
-      <c r="F83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="68"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3083,8 +3092,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3120,46 +3129,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="77"/>
-      <c r="F102" s="65" t="s">
+      <c r="E102" s="66"/>
+      <c r="F102" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="65" t="s">
+      <c r="K102" s="67" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="65" t="s">
+      <c r="M102" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="65" t="s">
+      <c r="N102" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="77"/>
-      <c r="F103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="68"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="K103" s="66"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="K103" s="68"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
+      <c r="M103" s="68"/>
+      <c r="N103" s="68"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3364,8 +3373,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3386,28 +3395,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="77"/>
-      <c r="F122" s="65" t="s">
+      <c r="E122" s="66"/>
+      <c r="F122" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="65" t="s">
+      <c r="H122" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="65" t="s">
+      <c r="I122" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="77"/>
-      <c r="F123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="68"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="68"/>
     </row>
     <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3461,7 +3470,9 @@
       <c r="H127" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I127" s="18"/>
+      <c r="I127" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E128" s="3"/>
@@ -3566,8 +3577,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
+      <c r="E140" s="69"/>
+      <c r="F140" s="69"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3588,28 +3599,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="77"/>
-      <c r="F142" s="65" t="s">
+      <c r="E142" s="66"/>
+      <c r="F142" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="65" t="s">
+      <c r="H142" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="65" t="s">
+      <c r="I142" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="77"/>
-      <c r="F143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="68"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
     </row>
     <row r="144" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3635,7 +3646,9 @@
       <c r="H145" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I145" s="18"/>
+      <c r="I145" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="44"/>
@@ -3661,20 +3674,36 @@
       <c r="H147" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="I147" s="18"/>
+      <c r="I147" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E148" s="44"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
+      <c r="F148" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="149" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E149" s="44"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
+      <c r="F149" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" t="s">
+        <v>129</v>
+      </c>
       <c r="I149" s="18"/>
     </row>
     <row r="150" spans="5:9" x14ac:dyDescent="0.25">
@@ -3754,68 +3783,14 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
+      <c r="E160" s="69"/>
+      <c r="F160" s="69"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3832,6 +3807,60 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823CFCF-F8CB-4597-AE08-CC16D9C4C492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF75FCE-B96F-4771-ADAC-9DA56D8935B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="135">
   <si>
     <t>Semaine</t>
   </si>
@@ -457,6 +457,22 @@
   </si>
   <si>
     <t>Backup / Restore    ,Création des index, Gestion des utilisateurs</t>
+  </si>
+  <si>
+    <t>enemies, bullets, game end, game victory(modification) pause,playgame</t>
+  </si>
+  <si>
+    <t>développement du rapport et des point(OOP) paragraphs,analyse,tests,images</t>
+  </si>
+  <si>
+    <t>enemies, bullets, game end, game victory(modification) pause,playgame/ 
+   .    développement du rapport et des point(OOP) paragraphs,analyse,tests,images. test unitaire , dock. Comments</t>
+  </si>
+  <si>
+    <t>programming-rapport</t>
+  </si>
+  <si>
+    <t>4h+2h</t>
   </si>
 </sst>
 </file>
@@ -1232,49 +1248,49 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1592,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624626D9-B0C9-4D07-963E-AEDAB590976A}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="D132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,8 +1630,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1633,36 +1649,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1751,8 +1767,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1770,8 +1786,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1877,8 +1893,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1888,8 +1904,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1899,8 +1915,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1910,8 +1926,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1928,13 +1944,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="80"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1967,42 +1983,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75">
+      <c r="A22" s="85"/>
+      <c r="B22" s="86">
         <v>1</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="90">
         <v>2</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="I22" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="68"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2361,8 +2377,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2393,44 +2409,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75">
+      <c r="A42" s="85"/>
+      <c r="B42" s="86">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="77">
+      <c r="D42" s="90">
         <v>4</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="67" t="s">
+      <c r="E42" s="78"/>
+      <c r="F42" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="67" t="s">
+      <c r="I42" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="68"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2538,8 +2554,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="71"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="52"/>
       <c r="D49" s="65">
         <f>SUM(D22:D48)</f>
@@ -2560,8 +2576,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2571,8 +2587,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2582,8 +2598,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2593,8 +2609,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="71"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2604,8 +2620,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="71"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2615,8 +2631,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2626,8 +2642,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="71"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2637,8 +2653,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2668,8 +2684,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2690,28 +2706,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="66"/>
-      <c r="F62" s="67" t="s">
+      <c r="E62" s="78"/>
+      <c r="F62" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="67" t="s">
+      <c r="H62" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="67" t="s">
+      <c r="I62" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="66"/>
-      <c r="F63" s="68"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2886,8 +2902,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2908,28 +2924,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="66"/>
-      <c r="F82" s="67" t="s">
+      <c r="E82" s="78"/>
+      <c r="F82" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="67" t="s">
+      <c r="I82" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="66"/>
-      <c r="F83" s="68"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="67"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3092,8 +3108,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3129,46 +3145,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="66"/>
-      <c r="F102" s="67" t="s">
+      <c r="E102" s="78"/>
+      <c r="F102" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="67" t="s">
+      <c r="H102" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="67" t="s">
+      <c r="I102" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="67" t="s">
+      <c r="K102" s="66" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="67" t="s">
+      <c r="M102" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="67" t="s">
+      <c r="N102" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="66"/>
-      <c r="F103" s="68"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="67"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="K103" s="68"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="68"/>
-      <c r="N103" s="68"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3373,8 +3389,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3395,28 +3411,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="66"/>
-      <c r="F122" s="67" t="s">
+      <c r="E122" s="78"/>
+      <c r="F122" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="67" t="s">
+      <c r="H122" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="67" t="s">
+      <c r="I122" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="66"/>
-      <c r="F123" s="68"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="67"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="68"/>
-      <c r="I123" s="68"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
     </row>
     <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3577,8 +3593,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="69"/>
-      <c r="F140" s="69"/>
+      <c r="E140" s="84"/>
+      <c r="F140" s="84"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3599,28 +3615,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="66"/>
-      <c r="F142" s="67" t="s">
+      <c r="E142" s="78"/>
+      <c r="F142" s="66" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="67" t="s">
+      <c r="H142" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="67" t="s">
+      <c r="I142" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="66"/>
-      <c r="F143" s="68"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="67"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="68"/>
-      <c r="I143" s="68"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
     </row>
     <row r="144" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3708,23 +3724,43 @@
     </row>
     <row r="150" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E150" s="44"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-    </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F150" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H150" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E151" s="44"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
+      <c r="F151" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E152" s="44"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="F152" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H152" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="I152" s="18"/>
     </row>
     <row r="153" spans="5:9" x14ac:dyDescent="0.25">
@@ -3783,14 +3819,68 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="69"/>
-      <c r="F160" s="69"/>
+      <c r="E160" s="84"/>
+      <c r="F160" s="84"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3807,60 +3897,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Shoot-me-up-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF75FCE-B96F-4771-ADAC-9DA56D8935B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46247C-915B-4296-8755-EF82C45A9348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51F6098-1CC3-4701-8358-FA8DBBC935C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="138">
   <si>
     <t>Semaine</t>
   </si>
@@ -473,6 +473,15 @@
   </si>
   <si>
     <t>4h+2h</t>
+  </si>
+  <si>
+    <t>docfx</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>DONE don’t need to explaine</t>
   </si>
 </sst>
 </file>
@@ -1248,49 +1257,49 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1609,7 +1618,7 @@
   <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,8 +1639,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1649,36 +1658,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="66" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1767,8 +1776,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1786,8 +1795,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1893,8 +1902,8 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1904,8 +1913,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="30"/>
       <c r="D17" s="60"/>
       <c r="E17" s="3"/>
@@ -1915,8 +1924,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1926,8 +1935,8 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="21"/>
       <c r="D19" s="60"/>
       <c r="E19" s="3"/>
@@ -1944,13 +1953,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1983,42 +1992,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75">
         <v>1</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="77">
         <v>2</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="67"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2377,8 +2386,8 @@
       <c r="D40" s="57">
         <v>5</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
@@ -2409,44 +2418,44 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="86">
+      <c r="A42" s="74"/>
+      <c r="B42" s="75">
         <v>20</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="77">
         <v>4</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="66" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="85"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="67"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -2554,8 +2563,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="73"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="52"/>
       <c r="D49" s="65">
         <f>SUM(D22:D48)</f>
@@ -2576,8 +2585,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="73"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2587,8 +2596,8 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="73"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2598,8 +2607,8 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="73"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2609,8 +2618,8 @@
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2620,8 +2629,8 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="73"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="21"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2631,8 +2640,8 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="21"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2642,8 +2651,8 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="73"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="21"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2653,8 +2662,8 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
       <c r="E57" s="3"/>
@@ -2684,8 +2693,8 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
@@ -2706,28 +2715,28 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="78"/>
-      <c r="F62" s="66" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="H62" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="66" t="s">
+      <c r="I62" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="78"/>
-      <c r="F63" s="67"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2902,8 +2911,8 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -2924,28 +2933,28 @@
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="78"/>
-      <c r="F82" s="66" t="s">
+      <c r="E82" s="66"/>
+      <c r="F82" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="66" t="s">
+      <c r="I82" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="78"/>
-      <c r="F83" s="67"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="68"/>
       <c r="G83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
     </row>
     <row r="84" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
@@ -3108,8 +3117,8 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -3145,46 +3154,46 @@
       </c>
     </row>
     <row r="102" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="78"/>
-      <c r="F102" s="66" t="s">
+      <c r="E102" s="66"/>
+      <c r="F102" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="66" t="s">
+      <c r="H102" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="66" t="s">
+      <c r="I102" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="66" t="s">
+      <c r="K102" s="67" t="s">
         <v>2</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="66" t="s">
+      <c r="M102" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="66" t="s">
+      <c r="N102" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="78"/>
-      <c r="F103" s="67"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="68"/>
       <c r="G103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="K103" s="67"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="K103" s="68"/>
       <c r="L103" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="67"/>
-      <c r="N103" s="67"/>
+      <c r="M103" s="68"/>
+      <c r="N103" s="68"/>
     </row>
     <row r="104" spans="5:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
@@ -3389,8 +3398,8 @@
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -3411,28 +3420,28 @@
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="78"/>
-      <c r="F122" s="66" t="s">
+      <c r="E122" s="66"/>
+      <c r="F122" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="66" t="s">
+      <c r="H122" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="66" t="s">
+      <c r="I122" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="78"/>
-      <c r="F123" s="67"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="68"/>
       <c r="G123" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="68"/>
     </row>
     <row r="124" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3593,8 +3602,8 @@
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="84"/>
-      <c r="F140" s="84"/>
+      <c r="E140" s="69"/>
+      <c r="F140" s="69"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
@@ -3615,28 +3624,28 @@
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="78"/>
-      <c r="F142" s="66" t="s">
+      <c r="E142" s="66"/>
+      <c r="F142" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H142" s="66" t="s">
+      <c r="H142" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="66" t="s">
+      <c r="I142" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="78"/>
-      <c r="F143" s="67"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="68"/>
       <c r="G143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
     </row>
     <row r="144" spans="5:9" ht="27" x14ac:dyDescent="0.25">
       <c r="E144" s="44"/>
@@ -3765,9 +3774,15 @@
     </row>
     <row r="153" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E153" s="44"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="F153" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H153" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="I153" s="18"/>
     </row>
     <row r="154" spans="5:9" x14ac:dyDescent="0.25">
@@ -3819,68 +3834,14 @@
       <c r="I159" s="34"/>
     </row>
     <row r="160" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E160" s="84"/>
-      <c r="F160" s="84"/>
+      <c r="E160" s="69"/>
+      <c r="F160" s="69"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36"/>
       <c r="I160" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="K102:K103"/>
@@ -3897,6 +3858,60 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I27" r:id="rId1" xr:uid="{07C6786C-D7B8-4C56-9CC2-8CB9F161D857}"/>
